--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:20:52+00:00</t>
+    <t>2021-10-08T09:56:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>6</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -142,18 +142,6 @@
   </si>
   <si>
     <t>Packaged Medicinal Product</t>
-  </si>
-  <si>
-    <t>VMPP</t>
-  </si>
-  <si>
-    <t>Virtual Medicinal Packaged Product</t>
-  </si>
-  <si>
-    <t>VMP</t>
-  </si>
-  <si>
-    <t>Virtual Medicinal Product</t>
   </si>
 </sst>
 </file>
@@ -444,7 +432,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -514,30 +502,6 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T09:56:27+00:00</t>
+    <t>2021-10-08T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T10:16:10+00:00</t>
+    <t>2021-10-08T11:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T11:07:42+00:00</t>
+    <t>2021-10-08T17:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T17:20:30+00:00</t>
+    <t>2022-01-04T09:41:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:41:13+00:00</t>
+    <t>2022-01-04T09:53:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T09:53:47+00:00</t>
+    <t>2022-01-04T10:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T10:47:37+00:00</t>
+    <t>2022-01-04T11:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T11:54:28+00:00</t>
+    <t>2022-01-04T12:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-04T12:00:37+00:00</t>
+    <t>2022-01-05T09:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T09:45:00+00:00</t>
+    <t>2022-01-05T19:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T19:33:35+00:00</t>
+    <t>2022-01-06T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T17:45:57+00:00</t>
+    <t>2022-01-25T16:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T16:57:24+00:00</t>
+    <t>2022-01-25T17:05:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:05:46+00:00</t>
+    <t>2022-01-25T17:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:18:16+00:00</t>
+    <t>2022-01-25T17:23:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:23:33+00:00</t>
+    <t>2022-01-25T17:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:25:01+00:00</t>
+    <t>2022-01-25T17:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T17:31:33+00:00</t>
+    <t>2022-01-26T09:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T09:44:32+00:00</t>
+    <t>2022-01-26T10:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:23:18+00:00</t>
+    <t>2022-01-26T10:32:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T10:32:28+00:00</t>
+    <t>2022-01-26T15:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T15:09:20+00:00</t>
+    <t>2022-01-26T17:22:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:22:48+00:00</t>
+    <t>2022-01-26T17:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T17:42:05+00:00</t>
+    <t>2022-01-27T10:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T10:33:03+00:00</t>
+    <t>2022-01-27T11:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T11:55:52+00:00</t>
+    <t>2022-01-27T12:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:11:00+00:00</t>
+    <t>2022-01-27T12:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T12:18:33+00:00</t>
+    <t>2022-01-27T13:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:02:02+00:00</t>
+    <t>2022-01-27T13:14:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:14:27+00:00</t>
+    <t>2022-01-27T13:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T13:16:24+00:00</t>
+    <t>2022-01-27T14:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:15:49+00:00</t>
+    <t>2022-01-27T14:24:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:24:59+00:00</t>
+    <t>2022-01-27T14:26:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:26:36+00:00</t>
+    <t>2022-01-27T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T14:37:11+00:00</t>
+    <t>2022-01-27T15:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medics.xlsx
+++ b/CodeSystem-medics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
